--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF99BD74-937C-4521-8114-3D1AD1CE288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEB4288-777C-4318-ACF9-6C1390FDC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13CA2566-1245-4FD7-92CE-1D50E9823232}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{445F1B9F-C74E-4174-854D-6414D2BD97CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>Menos</t>
@@ -104,28 +101,28 @@
     <t>29,5%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>34,7%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,25 +131,28 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>64,55%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,84 +164,90 @@
     <t>0,9%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
@@ -251,10 +257,10 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -269,133 +275,130 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>71,42%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>31,84%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C4C897-4CC6-4AE2-AB4B-47D44497C08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B045CA-EAFC-4F23-87ED-98998B52F72E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -967,16 +970,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>205</v>
@@ -985,13 +988,13 @@
         <v>155074</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>509</v>
@@ -1000,13 +1003,13 @@
         <v>277021</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>714</v>
@@ -1015,19 +1018,19 @@
         <v>432095</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>437</v>
@@ -1036,13 +1039,13 @@
         <v>346364</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>795</v>
@@ -1051,13 +1054,13 @@
         <v>477213</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>1232</v>
@@ -1066,10 +1069,10 @@
         <v>823578</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>38</v>
@@ -1173,16 +1176,16 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>519</v>
@@ -1191,13 +1194,13 @@
         <v>485921</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>915</v>
@@ -1206,13 +1209,13 @@
         <v>692417</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>1434</v>
@@ -1221,19 +1224,19 @@
         <v>1178337</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>1405</v>
@@ -1242,13 +1245,13 @@
         <v>1580942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>1872</v>
@@ -1257,13 +1260,13 @@
         <v>1460038</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>3277</v>
@@ -1272,13 +1275,13 @@
         <v>3040979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,7 +1337,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,13 +1349,13 @@
         <v>3757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -1361,13 +1364,13 @@
         <v>12570</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -1376,19 +1379,19 @@
         <v>16327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>169</v>
@@ -1397,13 +1400,13 @@
         <v>170653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>306</v>
@@ -1412,13 +1415,13 @@
         <v>204958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>475</v>
@@ -1427,19 +1430,19 @@
         <v>375610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>497</v>
@@ -1448,13 +1451,13 @@
         <v>489876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>671</v>
@@ -1463,13 +1466,13 @@
         <v>489622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
@@ -1478,13 +1481,13 @@
         <v>979498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,13 +1555,13 @@
         <v>46763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -1567,13 +1570,13 @@
         <v>87091</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -1582,19 +1585,19 @@
         <v>133854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>893</v>
@@ -1603,13 +1606,13 @@
         <v>811647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>1730</v>
@@ -1618,13 +1621,13 @@
         <v>1174395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>2623</v>
@@ -1633,19 +1636,19 @@
         <v>1986042</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>2339</v>
@@ -1654,28 +1657,28 @@
         <v>2417182</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>2426873</v>
+        <v>2426872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>5677</v>
@@ -1684,13 +1687,13 @@
         <v>4844054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1720,7 @@
         <v>5198</v>
       </c>
       <c r="I19" s="7">
-        <v>3688359</v>
+        <v>3688358</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEB4288-777C-4318-ACF9-6C1390FDC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9542A4EB-9123-4BB3-B441-09886E3B2471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{445F1B9F-C74E-4174-854D-6414D2BD97CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FDC1E10-5ED7-4671-AA4B-CB92D4A8CE35}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,129 +39,1083 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="437">
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -170,238 +1127,229 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B045CA-EAFC-4F23-87ED-98998B52F72E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8407-130F-4A48-8BFC-7F5578A106EE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -931,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>24282</v>
+        <v>78726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>44140</v>
+        <v>73739</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,121 +1909,121 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="N4" s="7">
-        <v>68422</v>
+        <v>152465</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D5" s="7">
-        <v>155074</v>
+        <v>196214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>509</v>
+        <v>367</v>
       </c>
       <c r="I5" s="7">
-        <v>277021</v>
+        <v>375726</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>714</v>
+        <v>566</v>
       </c>
       <c r="N5" s="7">
-        <v>432095</v>
+        <v>571941</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>437</v>
+        <v>747</v>
       </c>
       <c r="D6" s="7">
-        <v>346364</v>
+        <v>744388</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>795</v>
+        <v>850</v>
       </c>
       <c r="I6" s="7">
-        <v>477213</v>
+        <v>858924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1232</v>
+        <v>1597</v>
       </c>
       <c r="N6" s="7">
-        <v>823578</v>
+        <v>1603312</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,204 +2032,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>673</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="7">
-        <v>525720</v>
+        <v>1019328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>1367</v>
+        <v>1284</v>
       </c>
       <c r="I7" s="7">
-        <v>798374</v>
+        <v>1308389</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>2040</v>
+        <v>2311</v>
       </c>
       <c r="N7" s="7">
-        <v>1324094</v>
+        <v>2327717</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>18724</v>
+        <v>45082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7">
+        <v>48458</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="7">
+        <v>92</v>
+      </c>
+      <c r="N8" s="7">
+        <v>93540</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30382</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>74</v>
-      </c>
-      <c r="N8" s="7">
-        <v>49105</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>519</v>
+        <v>179</v>
       </c>
       <c r="D9" s="7">
-        <v>485921</v>
+        <v>188686</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>915</v>
+        <v>222</v>
       </c>
       <c r="I9" s="7">
-        <v>692417</v>
+        <v>230459</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>1434</v>
+        <v>401</v>
       </c>
       <c r="N9" s="7">
-        <v>1178337</v>
+        <v>419145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="D10" s="7">
-        <v>1580942</v>
+        <v>1431575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>1872</v>
+        <v>1270</v>
       </c>
       <c r="I10" s="7">
-        <v>1460038</v>
+        <v>1294358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>3277</v>
+        <v>2666</v>
       </c>
       <c r="N10" s="7">
-        <v>3040979</v>
+        <v>2725931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,204 +2238,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1948</v>
+        <v>1619</v>
       </c>
       <c r="D11" s="7">
-        <v>2085586</v>
+        <v>1665343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>2837</v>
+        <v>1540</v>
       </c>
       <c r="I11" s="7">
-        <v>2182836</v>
+        <v>1573274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>4785</v>
+        <v>3159</v>
       </c>
       <c r="N11" s="7">
-        <v>4268421</v>
+        <v>3238616</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>3757</v>
+        <v>16581</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>12570</v>
+        <v>9058</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>16327</v>
+        <v>25639</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>170653</v>
+        <v>73089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>306</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>204958</v>
+        <v>69560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>375610</v>
+        <v>142649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="D14" s="7">
-        <v>489876</v>
+        <v>455264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>671</v>
+        <v>376</v>
       </c>
       <c r="I14" s="7">
-        <v>489622</v>
+        <v>396858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>1168</v>
+        <v>813</v>
       </c>
       <c r="N14" s="7">
-        <v>979498</v>
+        <v>852121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,49 +2444,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>672</v>
+        <v>520</v>
       </c>
       <c r="D15" s="7">
-        <v>664286</v>
+        <v>544934</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>994</v>
+        <v>451</v>
       </c>
       <c r="I15" s="7">
-        <v>707149</v>
+        <v>475476</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1666</v>
+        <v>971</v>
       </c>
       <c r="N15" s="7">
-        <v>1371435</v>
+        <v>1020409</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,151 +2497,151 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="D16" s="7">
-        <v>46763</v>
+        <v>140389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>87091</v>
+        <v>131255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="N16" s="7">
-        <v>133854</v>
+        <v>271643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>893</v>
+        <v>446</v>
       </c>
       <c r="D17" s="7">
-        <v>811647</v>
+        <v>457990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>1730</v>
+        <v>656</v>
       </c>
       <c r="I17" s="7">
-        <v>1174395</v>
+        <v>675745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>2623</v>
+        <v>1102</v>
       </c>
       <c r="N17" s="7">
-        <v>1986042</v>
+        <v>1133735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2339</v>
+        <v>2580</v>
       </c>
       <c r="D18" s="7">
-        <v>2417182</v>
+        <v>2631226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>3338</v>
+        <v>2496</v>
       </c>
       <c r="I18" s="7">
-        <v>2426872</v>
+        <v>2550138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>5677</v>
+        <v>5076</v>
       </c>
       <c r="N18" s="7">
-        <v>4844054</v>
+        <v>5181365</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,19 +2650,2884 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22015532-075D-46EC-BCBA-F077340BC181}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>104</v>
+      </c>
+      <c r="D4" s="7">
+        <v>118117</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="7">
+        <v>110</v>
+      </c>
+      <c r="I4" s="7">
+        <v>118263</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="7">
+        <v>214</v>
+      </c>
+      <c r="N4" s="7">
+        <v>236380</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>208</v>
+      </c>
+      <c r="D5" s="7">
+        <v>217974</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="7">
+        <v>433</v>
+      </c>
+      <c r="I5" s="7">
+        <v>461529</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="7">
+        <v>641</v>
+      </c>
+      <c r="N5" s="7">
+        <v>679503</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>591</v>
+      </c>
+      <c r="D6" s="7">
+        <v>633099</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="7">
+        <v>701</v>
+      </c>
+      <c r="I6" s="7">
+        <v>754916</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1292</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1388016</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>903</v>
+      </c>
+      <c r="D7" s="7">
+        <v>969190</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1244</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1334709</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2147</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2303899</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>68171</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="7">
+        <v>48</v>
+      </c>
+      <c r="I8" s="7">
+        <v>53582</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M8" s="7">
+        <v>115</v>
+      </c>
+      <c r="N8" s="7">
+        <v>121753</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>347</v>
+      </c>
+      <c r="D9" s="7">
+        <v>368584</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="7">
+        <v>399</v>
+      </c>
+      <c r="I9" s="7">
+        <v>433699</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="7">
+        <v>746</v>
+      </c>
+      <c r="N9" s="7">
+        <v>802284</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1435</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1519436</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1182</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1264257</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2617</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2783693</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1849</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1956191</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1629</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1751539</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3478</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3707730</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7148</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9238</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M12" s="7">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7">
+        <v>16386</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7">
+        <v>101513</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="7">
+        <v>72</v>
+      </c>
+      <c r="I13" s="7">
+        <v>77449</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="7">
+        <v>162</v>
+      </c>
+      <c r="N13" s="7">
+        <v>178962</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>342</v>
+      </c>
+      <c r="D14" s="7">
+        <v>372519</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="7">
+        <v>332</v>
+      </c>
+      <c r="I14" s="7">
+        <v>371945</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" s="7">
+        <v>674</v>
+      </c>
+      <c r="N14" s="7">
+        <v>744464</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>438</v>
+      </c>
+      <c r="D15" s="7">
+        <v>481181</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>412</v>
+      </c>
+      <c r="I15" s="7">
+        <v>458631</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>850</v>
+      </c>
+      <c r="N15" s="7">
+        <v>939812</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>177</v>
+      </c>
+      <c r="D16" s="7">
+        <v>193436</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="7">
+        <v>166</v>
+      </c>
+      <c r="I16" s="7">
+        <v>181084</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="7">
+        <v>343</v>
+      </c>
+      <c r="N16" s="7">
+        <v>374519</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>645</v>
+      </c>
+      <c r="D17" s="7">
+        <v>688071</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="7">
+        <v>904</v>
+      </c>
+      <c r="I17" s="7">
+        <v>972677</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1549</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1660749</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2368</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2525055</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2215</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2391118</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4583</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4916174</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3190</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3406562</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3285</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3544879</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6475</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6951442</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B205D3-9F9A-42A8-81DC-0F27E78A0F14}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7">
+        <v>85411</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="7">
+        <v>74</v>
+      </c>
+      <c r="I4" s="7">
+        <v>86018</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" s="7">
+        <v>165</v>
+      </c>
+      <c r="N4" s="7">
+        <v>171429</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7">
+        <v>137431</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="7">
+        <v>271</v>
+      </c>
+      <c r="I5" s="7">
+        <v>309015</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="7">
+        <v>410</v>
+      </c>
+      <c r="N5" s="7">
+        <v>446446</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>530</v>
+      </c>
+      <c r="D6" s="7">
+        <v>529498</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="7">
+        <v>540</v>
+      </c>
+      <c r="I6" s="7">
+        <v>591075</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1070</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1120573</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>760</v>
+      </c>
+      <c r="D7" s="7">
+        <v>752340</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>885</v>
+      </c>
+      <c r="I7" s="7">
+        <v>986107</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1738448</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7">
+        <v>84678</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="7">
+        <v>63</v>
+      </c>
+      <c r="I8" s="7">
+        <v>68583</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="7">
+        <v>143</v>
+      </c>
+      <c r="N8" s="7">
+        <v>153260</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>333</v>
+      </c>
+      <c r="D9" s="7">
+        <v>362167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="7">
+        <v>397</v>
+      </c>
+      <c r="I9" s="7">
+        <v>423926</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="7">
+        <v>730</v>
+      </c>
+      <c r="N9" s="7">
+        <v>786093</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1535</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1624780</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1442</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1489805</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2977</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3114584</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1948</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2071625</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1902</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1982313</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3850</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4053938</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12878</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8771</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M12" s="7">
+        <v>22</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21649</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>88</v>
+      </c>
+      <c r="D13" s="7">
+        <v>101019</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="7">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7">
+        <v>108562</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M13" s="7">
+        <v>189</v>
+      </c>
+      <c r="N13" s="7">
+        <v>209581</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>400</v>
+      </c>
+      <c r="D14" s="7">
+        <v>432989</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="7">
+        <v>416</v>
+      </c>
+      <c r="I14" s="7">
+        <v>431807</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M14" s="7">
+        <v>816</v>
+      </c>
+      <c r="N14" s="7">
+        <v>864796</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>501</v>
+      </c>
+      <c r="D15" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>526</v>
+      </c>
+      <c r="I15" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>184</v>
+      </c>
+      <c r="D16" s="7">
+        <v>182967</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="7">
+        <v>146</v>
+      </c>
+      <c r="I16" s="7">
+        <v>163371</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="7">
+        <v>330</v>
+      </c>
+      <c r="N16" s="7">
+        <v>346338</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>560</v>
+      </c>
+      <c r="D17" s="7">
+        <v>600617</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="7">
+        <v>769</v>
+      </c>
+      <c r="I17" s="7">
+        <v>841503</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1329</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1442120</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2465</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2587268</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2398</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2512687</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4863</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5099954</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3370852</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3313</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3517561</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6522</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6888412</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B7FAD5-5E4D-44F3-88CF-A12616AFD45A}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25052</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="7">
+        <v>65</v>
+      </c>
+      <c r="I4" s="7">
+        <v>45477</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" s="7">
+        <v>97</v>
+      </c>
+      <c r="N4" s="7">
+        <v>70530</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>201</v>
+      </c>
+      <c r="D5" s="7">
+        <v>149836</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="7">
+        <v>503</v>
+      </c>
+      <c r="I5" s="7">
+        <v>273038</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M5" s="7">
+        <v>704</v>
+      </c>
+      <c r="N5" s="7">
+        <v>422875</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>440</v>
+      </c>
+      <c r="D6" s="7">
+        <v>350831</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7">
+        <v>799</v>
+      </c>
+      <c r="I6" s="7">
+        <v>479858</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1239</v>
+      </c>
+      <c r="N6" s="7">
+        <v>830690</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>673</v>
+      </c>
+      <c r="D7" s="7">
+        <v>525720</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1367</v>
+      </c>
+      <c r="I7" s="7">
+        <v>798374</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2040</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1324094</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18724</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="7">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7">
+        <v>33297</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M8" s="7">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7">
+        <v>52021</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>491</v>
+      </c>
+      <c r="D9" s="7">
+        <v>448412</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="7">
+        <v>867</v>
+      </c>
+      <c r="I9" s="7">
+        <v>652436</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1358</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1100847</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1433</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1618451</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1918</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1497103</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3351</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3115553</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1948</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2085586</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2837</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2182836</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4785</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4268421</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3757</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12570</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M12" s="7">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7">
+        <v>16327</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>150</v>
+      </c>
+      <c r="D13" s="7">
+        <v>147014</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" s="7">
+        <v>277</v>
+      </c>
+      <c r="I13" s="7">
+        <v>181246</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="M13" s="7">
+        <v>427</v>
+      </c>
+      <c r="N13" s="7">
+        <v>328260</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>516</v>
+      </c>
+      <c r="D14" s="7">
+        <v>513515</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H14" s="7">
+        <v>700</v>
+      </c>
+      <c r="I14" s="7">
+        <v>513333</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1216</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1026848</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>672</v>
+      </c>
+      <c r="D15" s="7">
+        <v>664286</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>994</v>
+      </c>
+      <c r="I15" s="7">
+        <v>707149</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1666</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1371435</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47533</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="7">
+        <v>134</v>
+      </c>
+      <c r="I16" s="7">
+        <v>91344</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M16" s="7">
+        <v>196</v>
+      </c>
+      <c r="N16" s="7">
+        <v>138877</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>842</v>
+      </c>
+      <c r="D17" s="7">
+        <v>745262</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1647</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1106720</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2489</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1851982</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2389</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2482797</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3417</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2490294</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5806</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4973091</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
         <v>3293</v>
       </c>
       <c r="D19" s="7">
         <v>3275592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>5198</v>
@@ -1723,13 +5536,13 @@
         <v>3688358</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>8491</v>
@@ -1738,18 +5551,18 @@
         <v>6963950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9542A4EB-9123-4BB3-B441-09886E3B2471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0820061A-8BB9-4B8D-9CEE-7ADA79359EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FDC1E10-5ED7-4671-AA4B-CB92D4A8CE35}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED2D8207-E480-42F3-8202-42DDED89CB82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>Menos</t>
@@ -107,28 +107,28 @@
     <t>19,25%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -137,28 +137,28 @@
     <t>73,03%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,850 +170,856 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,17%</t>
+    <t>75,42%</t>
   </si>
   <si>
     <t>78,23%</t>
@@ -1022,19 +1028,16 @@
     <t>71,43%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>73,08%</t>
   </si>
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
@@ -1043,85 +1046,73 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>65,07%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,55%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -1130,226 +1121,220 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>1,89%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>25,02%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8407-130F-4A48-8BFC-7F5578A106EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A378219A-B63E-42AA-80FA-4BF3561266BB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2539,7 +2524,7 @@
         <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2539,13 @@
         <v>457990</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>656</v>
@@ -2569,13 +2554,13 @@
         <v>675745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1102</v>
@@ -2584,13 +2569,13 @@
         <v>1133735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2590,13 @@
         <v>2631226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>2496</v>
@@ -2620,13 +2605,13 @@
         <v>2550138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>5076</v>
@@ -2635,13 +2620,13 @@
         <v>5181365</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2682,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22015532-075D-46EC-BCBA-F077340BC181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AFC35-9324-42E0-B820-9B6CDF95837B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2733,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2840,13 +2825,13 @@
         <v>118117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>110</v>
@@ -2855,13 +2840,13 @@
         <v>118263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>214</v>
@@ -2870,13 +2855,13 @@
         <v>236380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2876,13 @@
         <v>217974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>433</v>
@@ -2906,13 +2891,13 @@
         <v>461529</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>641</v>
@@ -2921,13 +2906,13 @@
         <v>679503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2927,13 @@
         <v>633099</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>701</v>
@@ -2957,13 +2942,13 @@
         <v>754916</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>1292</v>
@@ -2972,13 +2957,13 @@
         <v>1388016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3031,13 @@
         <v>68171</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3061,13 +3046,13 @@
         <v>53582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -3076,13 +3061,13 @@
         <v>121753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3082,13 @@
         <v>368584</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>399</v>
@@ -3112,13 +3097,13 @@
         <v>433699</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>746</v>
@@ -3127,13 +3112,13 @@
         <v>802284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3133,13 @@
         <v>1519436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>1182</v>
@@ -3163,13 +3148,13 @@
         <v>1264257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>2617</v>
@@ -3178,13 +3163,13 @@
         <v>2783693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3237,13 @@
         <v>7148</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3267,13 +3252,13 @@
         <v>9238</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3282,13 +3267,13 @@
         <v>16386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3288,13 @@
         <v>101513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -3318,7 +3303,7 @@
         <v>77449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>190</v>
@@ -3491,10 +3476,10 @@
         <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3494,13 @@
         <v>688071</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>904</v>
@@ -3524,13 +3509,13 @@
         <v>972677</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>1549</v>
@@ -3539,13 +3524,13 @@
         <v>1660749</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3545,13 @@
         <v>2525055</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>2215</v>
@@ -3652,7 +3637,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B205D3-9F9A-42A8-81DC-0F27E78A0F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E563CFE-85A5-4236-9FE8-4F0E107836D3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,10 +3834,10 @@
         <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -3861,13 +3846,13 @@
         <v>309015</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
@@ -3876,13 +3861,13 @@
         <v>446446</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3882,13 @@
         <v>529498</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>540</v>
@@ -4007,7 +3992,7 @@
         <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -4016,13 +4001,13 @@
         <v>68583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>143</v>
@@ -4031,13 +4016,13 @@
         <v>153260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4037,13 @@
         <v>362167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>397</v>
@@ -4067,13 +4052,13 @@
         <v>423926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>730</v>
@@ -4082,13 +4067,13 @@
         <v>786093</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4088,13 @@
         <v>1624780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>1442</v>
@@ -4118,13 +4103,13 @@
         <v>1489805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>2977</v>
@@ -4133,13 +4118,13 @@
         <v>3114584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4192,13 @@
         <v>12878</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4222,13 +4207,13 @@
         <v>8771</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -4237,13 +4222,13 @@
         <v>21649</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4243,13 @@
         <v>101019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -4273,13 +4258,13 @@
         <v>108562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -4288,13 +4273,13 @@
         <v>209581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4294,13 @@
         <v>432989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>416</v>
@@ -4324,13 +4309,13 @@
         <v>431807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -4339,13 +4324,13 @@
         <v>864796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4398,13 @@
         <v>182967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -4428,13 +4413,13 @@
         <v>163371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -4443,13 +4428,13 @@
         <v>346338</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4449,13 @@
         <v>600617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>769</v>
@@ -4479,13 +4464,13 @@
         <v>841503</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>1329</v>
@@ -4494,13 +4479,13 @@
         <v>1442120</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4500,13 @@
         <v>2587268</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>2398</v>
@@ -4530,13 +4515,13 @@
         <v>2512687</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>4863</v>
@@ -4545,13 +4530,13 @@
         <v>5099954</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4592,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4626,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B7FAD5-5E4D-44F3-88CF-A12616AFD45A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB209-72CD-4B5F-A6A6-ED8AC577B8AD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4643,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4750,13 +4735,13 @@
         <v>25052</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -4765,10 +4750,10 @@
         <v>45477</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>338</v>
@@ -4783,10 +4768,10 @@
         <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4786,13 @@
         <v>149836</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -4816,13 +4801,13 @@
         <v>273038</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>704</v>
@@ -4831,13 +4816,13 @@
         <v>422875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4837,13 @@
         <v>350831</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>799</v>
@@ -4867,13 +4852,13 @@
         <v>479858</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>1239</v>
@@ -4882,13 +4867,13 @@
         <v>830690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4941,13 @@
         <v>18724</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -4971,13 +4956,13 @@
         <v>33297</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
@@ -4986,13 +4971,13 @@
         <v>52021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4992,13 @@
         <v>448412</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
         <v>867</v>
@@ -5022,13 +5007,13 @@
         <v>652436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>1358</v>
@@ -5037,13 +5022,13 @@
         <v>1100847</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5043,13 @@
         <v>1618451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>1918</v>
@@ -5073,13 +5058,13 @@
         <v>1497103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>3351</v>
@@ -5088,13 +5073,13 @@
         <v>3115553</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5147,13 @@
         <v>3757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -5177,13 +5162,13 @@
         <v>12570</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -5192,13 +5177,13 @@
         <v>16327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5198,13 @@
         <v>147014</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -5228,13 +5213,13 @@
         <v>181246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>427</v>
@@ -5243,13 +5228,13 @@
         <v>328260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5249,13 @@
         <v>513515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
@@ -5279,13 +5264,13 @@
         <v>513333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1216</v>
@@ -5294,13 +5279,13 @@
         <v>1026848</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5353,13 @@
         <v>47533</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
@@ -5383,13 +5368,13 @@
         <v>91344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -5398,13 +5383,13 @@
         <v>138877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5404,13 @@
         <v>745262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>1647</v>
@@ -5434,13 +5419,13 @@
         <v>1106720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>2489</v>
@@ -5449,13 +5434,13 @@
         <v>1851982</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,28 +5455,28 @@
         <v>2482797</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>3417</v>
       </c>
       <c r="I18" s="7">
-        <v>2490294</v>
+        <v>2490295</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>5806</v>
@@ -5500,13 +5485,13 @@
         <v>4973091</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,7 +5518,7 @@
         <v>5198</v>
       </c>
       <c r="I19" s="7">
-        <v>3688358</v>
+        <v>3688359</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5562,7 +5547,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0820061A-8BB9-4B8D-9CEE-7ADA79359EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F216F4D-6E82-4E46-BE0E-A3AAA8267CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED2D8207-E480-42F3-8202-42DDED89CB82}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90C5CCFA-7179-4931-8F5E-4F3481BC6114}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="437">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -1043,298 +1043,313 @@
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A378219A-B63E-42AA-80FA-4BF3561266BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68676B9-C497-45DB-941D-847C83E49971}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2088,7 +2103,7 @@
         <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>48458</v>
+        <v>48457</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2190,7 +2205,7 @@
         <v>1270</v>
       </c>
       <c r="I10" s="7">
-        <v>1294358</v>
+        <v>1294357</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2205,7 +2220,7 @@
         <v>2666</v>
       </c>
       <c r="N10" s="7">
-        <v>2725931</v>
+        <v>2725932</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2241,7 +2256,7 @@
         <v>1540</v>
       </c>
       <c r="I11" s="7">
-        <v>1573274</v>
+        <v>1573273</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2256,7 +2271,7 @@
         <v>3159</v>
       </c>
       <c r="N11" s="7">
-        <v>3238616</v>
+        <v>3238617</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2701,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958AFC35-9324-42E0-B820-9B6CDF95837B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962C4956-829B-4CDE-ADD5-DA4F1F32A556}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,7 +3381,7 @@
         <v>674</v>
       </c>
       <c r="N14" s="7">
-        <v>744464</v>
+        <v>744465</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>201</v>
@@ -3417,7 +3432,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3491,7 +3506,7 @@
         <v>645</v>
       </c>
       <c r="D17" s="7">
-        <v>688071</v>
+        <v>688072</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>212</v>
@@ -3542,7 +3557,7 @@
         <v>2368</v>
       </c>
       <c r="D18" s="7">
-        <v>2525055</v>
+        <v>2525056</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>221</v>
@@ -3593,7 +3608,7 @@
         <v>3190</v>
       </c>
       <c r="D19" s="7">
-        <v>3406562</v>
+        <v>3406563</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3656,7 +3671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E563CFE-85A5-4236-9FE8-4F0E107836D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DC23AC-727E-41BB-ACB7-E8647F1DB9C5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3960,7 +3975,7 @@
         <v>1645</v>
       </c>
       <c r="N7" s="7">
-        <v>1738448</v>
+        <v>1738447</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4321,7 +4336,7 @@
         <v>816</v>
       </c>
       <c r="N14" s="7">
-        <v>864796</v>
+        <v>864797</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>306</v>
@@ -4372,7 +4387,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4527,7 +4542,7 @@
         <v>4863</v>
       </c>
       <c r="N18" s="7">
-        <v>5099954</v>
+        <v>5099955</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>331</v>
@@ -4578,7 +4593,7 @@
         <v>6522</v>
       </c>
       <c r="N19" s="7">
-        <v>6888412</v>
+        <v>6888413</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4611,7 +4626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFB209-72CD-4B5F-A6A6-ED8AC577B8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF107A-3F22-4E55-8DF0-1ACF56A405F9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4732,7 +4747,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>25052</v>
+        <v>24143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>334</v>
@@ -4747,13 +4762,13 @@
         <v>65</v>
       </c>
       <c r="I4" s="7">
-        <v>45477</v>
+        <v>39166</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>338</v>
@@ -4762,16 +4777,16 @@
         <v>97</v>
       </c>
       <c r="N4" s="7">
-        <v>70530</v>
+        <v>63309</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,46 +4798,46 @@
         <v>201</v>
       </c>
       <c r="D5" s="7">
-        <v>149836</v>
+        <v>143255</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
       </c>
       <c r="I5" s="7">
-        <v>273038</v>
+        <v>250028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>704</v>
       </c>
       <c r="N5" s="7">
-        <v>422875</v>
+        <v>393283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,46 +4849,46 @@
         <v>440</v>
       </c>
       <c r="D6" s="7">
-        <v>350831</v>
+        <v>332348</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>799</v>
       </c>
       <c r="I6" s="7">
-        <v>479858</v>
+        <v>431794</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>1239</v>
       </c>
       <c r="N6" s="7">
-        <v>830690</v>
+        <v>764142</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4900,7 @@
         <v>673</v>
       </c>
       <c r="D7" s="7">
-        <v>525720</v>
+        <v>499746</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4900,7 +4915,7 @@
         <v>1367</v>
       </c>
       <c r="I7" s="7">
-        <v>798374</v>
+        <v>720987</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4915,7 +4930,7 @@
         <v>2040</v>
       </c>
       <c r="N7" s="7">
-        <v>1324094</v>
+        <v>1220734</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4938,46 +4953,46 @@
         <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>18724</v>
+        <v>17769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>33297</v>
+        <v>30978</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>52021</v>
+        <v>48747</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,46 +5004,46 @@
         <v>491</v>
       </c>
       <c r="D9" s="7">
-        <v>448412</v>
+        <v>438874</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>867</v>
       </c>
       <c r="I9" s="7">
-        <v>652436</v>
+        <v>709171</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>1358</v>
       </c>
       <c r="N9" s="7">
-        <v>1100847</v>
+        <v>1148044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,46 +5055,46 @@
         <v>1433</v>
       </c>
       <c r="D10" s="7">
-        <v>1618451</v>
+        <v>1754258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>1918</v>
       </c>
       <c r="I10" s="7">
-        <v>1497103</v>
+        <v>1435570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>3351</v>
       </c>
       <c r="N10" s="7">
-        <v>3115553</v>
+        <v>3189827</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5106,7 @@
         <v>1948</v>
       </c>
       <c r="D11" s="7">
-        <v>2085586</v>
+        <v>2210901</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5106,7 +5121,7 @@
         <v>2837</v>
       </c>
       <c r="I11" s="7">
-        <v>2182836</v>
+        <v>2175718</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5121,7 +5136,7 @@
         <v>4785</v>
       </c>
       <c r="N11" s="7">
-        <v>4268421</v>
+        <v>4386618</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5144,46 +5159,46 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3757</v>
+        <v>3571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>12570</v>
+        <v>11463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>16327</v>
+        <v>15035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,46 +5210,46 @@
         <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>147014</v>
+        <v>146352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
       </c>
       <c r="I13" s="7">
-        <v>181246</v>
+        <v>168965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>427</v>
       </c>
       <c r="N13" s="7">
-        <v>328260</v>
+        <v>315316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,46 +5261,46 @@
         <v>516</v>
       </c>
       <c r="D14" s="7">
-        <v>513515</v>
+        <v>488381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
       </c>
       <c r="I14" s="7">
-        <v>513333</v>
+        <v>473788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>1216</v>
       </c>
       <c r="N14" s="7">
-        <v>1026848</v>
+        <v>962168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5312,7 @@
         <v>672</v>
       </c>
       <c r="D15" s="7">
-        <v>664286</v>
+        <v>638304</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5312,7 +5327,7 @@
         <v>994</v>
       </c>
       <c r="I15" s="7">
-        <v>707149</v>
+        <v>654216</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5327,7 +5342,7 @@
         <v>1666</v>
       </c>
       <c r="N15" s="7">
-        <v>1371435</v>
+        <v>1292519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5350,46 +5365,46 @@
         <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>47533</v>
+        <v>45483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>134</v>
       </c>
       <c r="I16" s="7">
-        <v>91344</v>
+        <v>81607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
       </c>
       <c r="N16" s="7">
-        <v>138877</v>
+        <v>127090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,46 +5416,46 @@
         <v>842</v>
       </c>
       <c r="D17" s="7">
-        <v>745262</v>
+        <v>728481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>1647</v>
       </c>
       <c r="I17" s="7">
-        <v>1106720</v>
+        <v>1128162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>2489</v>
       </c>
       <c r="N17" s="7">
-        <v>1851982</v>
+        <v>1856644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,46 +5467,46 @@
         <v>2389</v>
       </c>
       <c r="D18" s="7">
-        <v>2482797</v>
+        <v>2574986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>3417</v>
       </c>
       <c r="I18" s="7">
-        <v>2490295</v>
+        <v>2341151</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>5806</v>
       </c>
       <c r="N18" s="7">
-        <v>4973091</v>
+        <v>4916137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5518,7 @@
         <v>3293</v>
       </c>
       <c r="D19" s="7">
-        <v>3275592</v>
+        <v>3348951</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5518,7 +5533,7 @@
         <v>5198</v>
       </c>
       <c r="I19" s="7">
-        <v>3688359</v>
+        <v>3550920</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5533,7 +5548,7 @@
         <v>8491</v>
       </c>
       <c r="N19" s="7">
-        <v>6963950</v>
+        <v>6899871</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2007</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2609,7 +2609,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2012</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4672,7 +4672,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2016</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6735,7 +6735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2023</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
